--- a/data/PLL Schedule Ideas.xlsx
+++ b/data/PLL Schedule Ideas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cd057e22929ecf3/Personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1667" documentId="8_{A9BD2725-CB10-4498-A93E-FB8D200521E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F8033AE-5215-469E-BEFA-E4BBABB611AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A08027-E5D5-4515-B2D1-DFE9441883BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DDA30DD-F46D-444D-A6B4-2014FC90BDBD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="5" xr2:uid="{6DDA30DD-F46D-444D-A6B4-2014FC90BDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="2" r:id="rId1"/>
@@ -363,13 +363,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,34 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,9 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,32 +767,32 @@
       <selection pane="bottomLeft" sqref="A1:AC88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.86328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1328125" style="15" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.1328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.1328125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -875,7 +875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43890</v>
       </c>
@@ -973,7 +973,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43891</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43892</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43893</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43894</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43895</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43896</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>43897</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>43898</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>43899</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>43900</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>43901</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>43902</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>43903</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>43904</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>43905</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43906</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43907</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43908</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43909</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43910</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0.18333333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43911</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43912</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43913</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43914</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43915</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="21">
         <v>43916</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43917</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0.31666666666666665</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43918</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43920</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43921</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43922</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43923</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43924</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43925</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43926</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="19">
         <v>43927</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>43928</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43929</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43930</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>43931</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>43932</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="10">
         <v>43933</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43934</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43935</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43936</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43937</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43938</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43939</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43940</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43941</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43942</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43943</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43944</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43945</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43946</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43947</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43948</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43949</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43950</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43951</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43952</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43953</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43954</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43955</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43956</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43957</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43958</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43959</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43960</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43961</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A74" s="19">
         <v>43962</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A75" s="19">
         <v>43963</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43964</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43965</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43966</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43967</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43968</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43969</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43970</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>43971</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>43972</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.45">
       <c r="K85">
         <f t="shared" si="38"/>
         <v>779</v>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D87">
         <v>88</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D88" s="12">
         <f>D87-D86</f>
         <v>0</v>
@@ -8461,15 +8461,15 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43890</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43891</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43892</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43893</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43894</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43895</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43896</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>43897</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>43898</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>43899</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>43900</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>43901</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>43902</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>43903</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>43904</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>43905</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43906</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43907</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43908</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>2.6785714285714284E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43909</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>5.3571428571428568E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43910</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>8.0357142857142863E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43911</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>0.15178571428571427</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43912</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>0.15178571428571427</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43913</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>0.15178571428571427</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43914</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>0.17857142857142858</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43915</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>0.20535714285714285</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="21">
         <v>43916</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>0.20535714285714285</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43917</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>0.20535714285714285</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43918</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>0.2767857142857143</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>0.2767857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43920</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>0.2767857142857143</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43921</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0.2767857142857143</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43922</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>0.30357142857142855</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43923</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0.33035714285714285</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43924</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43925</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43926</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="19">
         <v>43927</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>43928</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43929</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43930</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>43931</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>43932</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="10">
         <v>43933</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43934</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43935</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43936</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>0.45535714285714285</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43937</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0.4732142857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43938</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43939</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43940</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43941</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43942</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43943</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>0.5982142857142857</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43944</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43945</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43946</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43947</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43948</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43949</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43950</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>0.7321428571428571</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43951</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43952</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43953</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43954</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43955</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43956</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43957</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>0.8392857142857143</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43958</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43959</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43960</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43961</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A74" s="19">
         <v>43962</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A75" s="19">
         <v>43963</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43964</v>
       </c>
@@ -15223,7 +15223,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43965</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43966</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43967</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43968</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43969</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43970</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>43971</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>43972</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.45">
       <c r="K85">
         <f t="shared" si="33"/>
         <v>645</v>
@@ -15980,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -16037,7 +16037,7 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D87">
         <v>77</v>
       </c>
@@ -16066,7 +16066,7 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="15"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D88" s="12">
         <f>D87-D86</f>
         <v>0</v>
@@ -16100,7 +16100,7 @@
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
         <v>34</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
         <v>1</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
         <v>31</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
         <v>32</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
         <v>16</v>
       </c>
@@ -16192,20 +16192,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B0E7FA-17A5-40CE-BE4D-BA3AA2B98585}">
   <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -16272,7 +16272,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43890</v>
       </c>
@@ -16314,8 +16314,8 @@
         <f>$O$85-O2</f>
         <v>1088</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
       <c r="V2" s="15"/>
       <c r="W2" s="17"/>
       <c r="X2" s="15"/>
@@ -16325,7 +16325,7 @@
       <c r="AB2" s="15"/>
       <c r="AC2" s="17"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43891</v>
       </c>
@@ -16368,8 +16368,8 @@
         <f>$O$85-O3</f>
         <v>1088</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="15"/>
       <c r="W3" s="17"/>
       <c r="X3" s="15"/>
@@ -16379,7 +16379,7 @@
       <c r="AB3" s="15"/>
       <c r="AC3" s="17"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43892</v>
       </c>
@@ -16422,8 +16422,8 @@
         <f>$O$85-O4</f>
         <v>1072</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="15"/>
       <c r="W4" s="17"/>
       <c r="X4" s="15"/>
@@ -16433,7 +16433,7 @@
       <c r="AB4" s="15"/>
       <c r="AC4" s="17"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43893</v>
       </c>
@@ -16476,8 +16476,8 @@
         <f t="shared" ref="R5:R68" si="8">$O$85-O5</f>
         <v>1056</v>
       </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="15"/>
       <c r="W5" s="17"/>
       <c r="X5" s="15"/>
@@ -16487,7 +16487,7 @@
       <c r="AB5" s="15"/>
       <c r="AC5" s="17"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43894</v>
       </c>
@@ -16530,8 +16530,8 @@
         <f t="shared" si="8"/>
         <v>1040</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="15"/>
       <c r="W6" s="17"/>
       <c r="X6" s="15"/>
@@ -16541,7 +16541,7 @@
       <c r="AB6" s="15"/>
       <c r="AC6" s="17"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43895</v>
       </c>
@@ -16584,8 +16584,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="15"/>
       <c r="W7" s="17"/>
       <c r="X7" s="15"/>
@@ -16595,7 +16595,7 @@
       <c r="AB7" s="15"/>
       <c r="AC7" s="17"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43896</v>
       </c>
@@ -16635,8 +16635,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="15"/>
       <c r="W8" s="17"/>
       <c r="X8" s="15"/>
@@ -16646,7 +16646,7 @@
       <c r="AB8" s="15"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>43897</v>
       </c>
@@ -16689,8 +16689,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="15"/>
       <c r="W9" s="17"/>
       <c r="X9" s="15"/>
@@ -16700,7 +16700,7 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>43898</v>
       </c>
@@ -16743,8 +16743,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
       <c r="V10" s="15"/>
       <c r="W10" s="17"/>
       <c r="X10" s="15"/>
@@ -16754,7 +16754,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>43899</v>
       </c>
@@ -16797,8 +16797,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
       <c r="V11" s="15"/>
       <c r="W11" s="17"/>
       <c r="X11" s="15"/>
@@ -16808,7 +16808,7 @@
       <c r="AB11" s="15"/>
       <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>43900</v>
       </c>
@@ -16851,8 +16851,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="15"/>
       <c r="W12" s="17"/>
       <c r="X12" s="15"/>
@@ -16862,7 +16862,7 @@
       <c r="AB12" s="15"/>
       <c r="AC12" s="17"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>43901</v>
       </c>
@@ -16905,8 +16905,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="15"/>
       <c r="W13" s="17"/>
       <c r="X13" s="15"/>
@@ -16916,7 +16916,7 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="17"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>43902</v>
       </c>
@@ -16959,8 +16959,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="15"/>
       <c r="W14" s="17"/>
       <c r="X14" s="15"/>
@@ -16970,7 +16970,7 @@
       <c r="AB14" s="15"/>
       <c r="AC14" s="17"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>43903</v>
       </c>
@@ -17013,8 +17013,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="15"/>
       <c r="W15" s="17"/>
       <c r="X15" s="15"/>
@@ -17024,7 +17024,7 @@
       <c r="AB15" s="15"/>
       <c r="AC15" s="17"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>43904</v>
       </c>
@@ -17067,8 +17067,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="15"/>
       <c r="W16" s="17"/>
       <c r="X16" s="15"/>
@@ -17078,7 +17078,7 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="17"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>43905</v>
       </c>
@@ -17121,8 +17121,8 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
       <c r="V17" s="15"/>
       <c r="W17" s="17"/>
       <c r="X17" s="15"/>
@@ -17132,7 +17132,7 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="17"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43906</v>
       </c>
@@ -17175,10 +17175,10 @@
         <f t="shared" si="8"/>
         <v>1008</v>
       </c>
-      <c r="T18" s="48">
+      <c r="T18" s="23">
         <v>10</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="23">
         <v>6</v>
       </c>
       <c r="V18" s="15"/>
@@ -17190,7 +17190,7 @@
       <c r="AB18" s="15"/>
       <c r="AC18" s="17"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43907</v>
       </c>
@@ -17233,10 +17233,10 @@
         <f t="shared" si="8"/>
         <v>992</v>
       </c>
-      <c r="T19" s="48">
+      <c r="T19" s="23">
         <v>10</v>
       </c>
-      <c r="U19" s="48">
+      <c r="U19" s="23">
         <v>6</v>
       </c>
       <c r="V19" s="15"/>
@@ -17248,7 +17248,7 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="17"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43908</v>
       </c>
@@ -17306,8 +17306,8 @@
         <f t="shared" si="8"/>
         <v>976</v>
       </c>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="15"/>
       <c r="W20" s="17"/>
       <c r="X20" s="15"/>
@@ -17317,7 +17317,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="17"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43909</v>
       </c>
@@ -17375,8 +17375,8 @@
         <f t="shared" si="8"/>
         <v>960</v>
       </c>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
       <c r="V21" s="15"/>
       <c r="W21" s="17"/>
       <c r="X21" s="15"/>
@@ -17386,7 +17386,7 @@
       <c r="AB21" s="15"/>
       <c r="AC21" s="17"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43910</v>
       </c>
@@ -17444,8 +17444,8 @@
         <f t="shared" si="8"/>
         <v>944</v>
       </c>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="15"/>
       <c r="W22" s="17"/>
       <c r="X22" s="15"/>
@@ -17455,7 +17455,7 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="17"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43911</v>
       </c>
@@ -17516,8 +17516,8 @@
         <f t="shared" si="8"/>
         <v>904</v>
       </c>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
       <c r="X23" s="15"/>
@@ -17527,7 +17527,7 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="17"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43912</v>
       </c>
@@ -17567,8 +17567,8 @@
         <f t="shared" si="8"/>
         <v>904</v>
       </c>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
       <c r="X24" s="15"/>
@@ -17578,7 +17578,7 @@
       <c r="AB24" s="15"/>
       <c r="AC24" s="17"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43913</v>
       </c>
@@ -17621,10 +17621,10 @@
         <f t="shared" si="8"/>
         <v>888</v>
       </c>
-      <c r="T25" s="48">
+      <c r="T25" s="23">
         <v>10</v>
       </c>
-      <c r="U25" s="48">
+      <c r="U25" s="23">
         <v>6</v>
       </c>
       <c r="V25" s="15"/>
@@ -17636,7 +17636,7 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43914</v>
       </c>
@@ -17694,8 +17694,8 @@
         <f t="shared" si="8"/>
         <v>872</v>
       </c>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
       <c r="V26" s="15"/>
       <c r="W26" s="17"/>
       <c r="X26" s="15"/>
@@ -17705,7 +17705,7 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="17"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43915</v>
       </c>
@@ -17763,8 +17763,8 @@
         <f t="shared" si="8"/>
         <v>856</v>
       </c>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="15"/>
       <c r="W27" s="17"/>
       <c r="X27" s="15"/>
@@ -17774,7 +17774,7 @@
       <c r="AB27" s="15"/>
       <c r="AC27" s="17"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A28" s="21">
         <v>43916</v>
       </c>
@@ -17820,8 +17820,8 @@
         <f t="shared" si="8"/>
         <v>840</v>
       </c>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="15"/>
       <c r="W28" s="17"/>
       <c r="X28" s="15"/>
@@ -17831,7 +17831,7 @@
       <c r="AB28" s="15"/>
       <c r="AC28" s="17"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43917</v>
       </c>
@@ -17889,8 +17889,8 @@
         <f t="shared" si="8"/>
         <v>824</v>
       </c>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="15"/>
       <c r="W29" s="17"/>
       <c r="X29" s="15"/>
@@ -17900,7 +17900,7 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="17"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43918</v>
       </c>
@@ -17961,8 +17961,8 @@
         <f t="shared" si="8"/>
         <v>784</v>
       </c>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
       <c r="V30" s="15"/>
       <c r="W30" s="17"/>
       <c r="X30" s="15"/>
@@ -17972,7 +17972,7 @@
       <c r="AB30" s="15"/>
       <c r="AC30" s="17"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -18012,8 +18012,8 @@
         <f t="shared" si="8"/>
         <v>784</v>
       </c>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
       <c r="V31" s="15"/>
       <c r="W31" s="17"/>
       <c r="X31" s="15"/>
@@ -18023,7 +18023,7 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="17"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43920</v>
       </c>
@@ -18066,10 +18066,10 @@
         <f t="shared" si="8"/>
         <v>768</v>
       </c>
-      <c r="T32" s="48">
+      <c r="T32" s="23">
         <v>10</v>
       </c>
-      <c r="U32" s="48">
+      <c r="U32" s="23">
         <v>6</v>
       </c>
       <c r="V32" s="15"/>
@@ -18081,7 +18081,7 @@
       <c r="AB32" s="15"/>
       <c r="AC32" s="17"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43921</v>
       </c>
@@ -18124,10 +18124,10 @@
         <f t="shared" si="8"/>
         <v>752</v>
       </c>
-      <c r="T33" s="48">
+      <c r="T33" s="23">
         <v>10</v>
       </c>
-      <c r="U33" s="48">
+      <c r="U33" s="23">
         <v>6</v>
       </c>
       <c r="V33" s="15"/>
@@ -18139,7 +18139,7 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="17"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43922</v>
       </c>
@@ -18197,8 +18197,8 @@
         <f t="shared" si="8"/>
         <v>736</v>
       </c>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
       <c r="V34" s="15"/>
       <c r="W34" s="17"/>
       <c r="X34" s="15"/>
@@ -18208,7 +18208,7 @@
       <c r="AB34" s="15"/>
       <c r="AC34" s="17"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43923</v>
       </c>
@@ -18266,8 +18266,8 @@
         <f t="shared" si="8"/>
         <v>720</v>
       </c>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
       <c r="V35" s="15"/>
       <c r="W35" s="17"/>
       <c r="X35" s="15"/>
@@ -18277,7 +18277,7 @@
       <c r="AB35" s="15"/>
       <c r="AC35" s="17"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43924</v>
       </c>
@@ -18335,8 +18335,8 @@
         <f t="shared" si="8"/>
         <v>704</v>
       </c>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
       <c r="V36" s="15"/>
       <c r="W36" s="17"/>
       <c r="X36" s="15"/>
@@ -18346,7 +18346,7 @@
       <c r="AB36" s="15"/>
       <c r="AC36" s="17"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43925</v>
       </c>
@@ -18407,8 +18407,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
       <c r="V37" s="15"/>
       <c r="W37" s="17"/>
       <c r="X37" s="15"/>
@@ -18418,7 +18418,7 @@
       <c r="AB37" s="15"/>
       <c r="AC37" s="17"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43926</v>
       </c>
@@ -18458,8 +18458,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
       <c r="X38" s="15"/>
@@ -18469,7 +18469,7 @@
       <c r="AB38" s="15"/>
       <c r="AC38" s="17"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A39" s="19">
         <v>43927</v>
       </c>
@@ -18512,8 +18512,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
       <c r="X39" s="15"/>
@@ -18523,7 +18523,7 @@
       <c r="AB39" s="15"/>
       <c r="AC39" s="17"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>43928</v>
       </c>
@@ -18566,8 +18566,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
       <c r="V40" s="15"/>
       <c r="W40" s="17"/>
       <c r="X40" s="15"/>
@@ -18577,7 +18577,7 @@
       <c r="AB40" s="15"/>
       <c r="AC40" s="17"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43929</v>
       </c>
@@ -18617,10 +18617,10 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T41" s="48">
+      <c r="T41" s="23">
         <v>10</v>
       </c>
-      <c r="U41" s="48">
+      <c r="U41" s="23">
         <v>6</v>
       </c>
       <c r="V41" s="15"/>
@@ -18632,7 +18632,7 @@
       <c r="AB41" s="15"/>
       <c r="AC41" s="17"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43930</v>
       </c>
@@ -18672,10 +18672,10 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T42" s="48">
+      <c r="T42" s="23">
         <v>10</v>
       </c>
-      <c r="U42" s="48">
+      <c r="U42" s="23">
         <v>6</v>
       </c>
       <c r="V42" s="15"/>
@@ -18687,7 +18687,7 @@
       <c r="AB42" s="15"/>
       <c r="AC42" s="17"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>43931</v>
       </c>
@@ -18730,8 +18730,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
       <c r="X43" s="15"/>
@@ -18741,7 +18741,7 @@
       <c r="AB43" s="15"/>
       <c r="AC43" s="17"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44" s="10">
         <v>43932</v>
       </c>
@@ -18781,8 +18781,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
       <c r="V44" s="15"/>
       <c r="W44" s="17"/>
       <c r="X44" s="15"/>
@@ -18792,7 +18792,7 @@
       <c r="AB44" s="15"/>
       <c r="AC44" s="17"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="10">
         <v>43933</v>
       </c>
@@ -18835,8 +18835,8 @@
         <f t="shared" si="8"/>
         <v>664</v>
       </c>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
       <c r="V45" s="15"/>
       <c r="W45" s="17"/>
       <c r="X45" s="15"/>
@@ -18846,7 +18846,7 @@
       <c r="AB45" s="15"/>
       <c r="AC45" s="17"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43934</v>
       </c>
@@ -18889,10 +18889,10 @@
         <f t="shared" si="8"/>
         <v>648</v>
       </c>
-      <c r="T46" s="48">
+      <c r="T46" s="23">
         <v>10</v>
       </c>
-      <c r="U46" s="48">
+      <c r="U46" s="23">
         <v>6</v>
       </c>
       <c r="V46" s="15"/>
@@ -18904,7 +18904,7 @@
       <c r="AB46" s="15"/>
       <c r="AC46" s="17"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43935</v>
       </c>
@@ -18947,10 +18947,10 @@
         <f t="shared" si="8"/>
         <v>632</v>
       </c>
-      <c r="T47" s="48">
+      <c r="T47" s="23">
         <v>10</v>
       </c>
-      <c r="U47" s="48">
+      <c r="U47" s="23">
         <v>6</v>
       </c>
       <c r="V47" s="15"/>
@@ -18962,7 +18962,7 @@
       <c r="AB47" s="15"/>
       <c r="AC47" s="17"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43936</v>
       </c>
@@ -19020,8 +19020,8 @@
         <f t="shared" si="8"/>
         <v>616</v>
       </c>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
       <c r="V48" s="15"/>
       <c r="W48" s="17"/>
       <c r="X48" s="15"/>
@@ -19031,7 +19031,7 @@
       <c r="AB48" s="15"/>
       <c r="AC48" s="17"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43937</v>
       </c>
@@ -19089,8 +19089,8 @@
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
       <c r="V49" s="15"/>
       <c r="W49" s="17"/>
       <c r="X49" s="15"/>
@@ -19100,7 +19100,7 @@
       <c r="AB49" s="15"/>
       <c r="AC49" s="17"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43938</v>
       </c>
@@ -19158,8 +19158,8 @@
         <f t="shared" si="8"/>
         <v>584</v>
       </c>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
       <c r="V50" s="15"/>
       <c r="W50" s="17"/>
       <c r="X50" s="15"/>
@@ -19169,7 +19169,7 @@
       <c r="AB50" s="15"/>
       <c r="AC50" s="17"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43939</v>
       </c>
@@ -19230,8 +19230,8 @@
         <f t="shared" si="8"/>
         <v>544</v>
       </c>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
       <c r="V51" s="15"/>
       <c r="W51" s="17"/>
       <c r="X51" s="15"/>
@@ -19241,7 +19241,7 @@
       <c r="AB51" s="15"/>
       <c r="AC51" s="17"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43940</v>
       </c>
@@ -19281,8 +19281,8 @@
         <f t="shared" si="8"/>
         <v>544</v>
       </c>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
       <c r="V52" s="15"/>
       <c r="W52" s="17"/>
       <c r="X52" s="15"/>
@@ -19292,7 +19292,7 @@
       <c r="AB52" s="15"/>
       <c r="AC52" s="17"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43941</v>
       </c>
@@ -19335,10 +19335,10 @@
         <f t="shared" si="8"/>
         <v>528</v>
       </c>
-      <c r="T53" s="48">
+      <c r="T53" s="23">
         <v>10</v>
       </c>
-      <c r="U53" s="48">
+      <c r="U53" s="23">
         <v>6</v>
       </c>
       <c r="V53" s="15"/>
@@ -19350,7 +19350,7 @@
       <c r="AB53" s="15"/>
       <c r="AC53" s="17"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43942</v>
       </c>
@@ -19393,10 +19393,10 @@
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
-      <c r="T54" s="48">
+      <c r="T54" s="23">
         <v>10</v>
       </c>
-      <c r="U54" s="48">
+      <c r="U54" s="23">
         <v>6</v>
       </c>
       <c r="V54" s="15"/>
@@ -19408,7 +19408,7 @@
       <c r="AB54" s="15"/>
       <c r="AC54" s="17"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43943</v>
       </c>
@@ -19466,8 +19466,8 @@
         <f t="shared" si="8"/>
         <v>496</v>
       </c>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
       <c r="V55" s="15"/>
       <c r="W55" s="17"/>
       <c r="X55" s="15"/>
@@ -19477,7 +19477,7 @@
       <c r="AB55" s="15"/>
       <c r="AC55" s="17"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43944</v>
       </c>
@@ -19535,8 +19535,8 @@
         <f t="shared" si="8"/>
         <v>480</v>
       </c>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
       <c r="V56" s="15"/>
       <c r="W56" s="17"/>
       <c r="X56" s="15"/>
@@ -19546,7 +19546,7 @@
       <c r="AB56" s="15"/>
       <c r="AC56" s="17"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43945</v>
       </c>
@@ -19604,8 +19604,8 @@
         <f t="shared" si="8"/>
         <v>464</v>
       </c>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
       <c r="V57" s="15"/>
       <c r="W57" s="17"/>
       <c r="X57" s="15"/>
@@ -19615,7 +19615,7 @@
       <c r="AB57" s="15"/>
       <c r="AC57" s="17"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43946</v>
       </c>
@@ -19676,8 +19676,8 @@
         <f t="shared" si="8"/>
         <v>424</v>
       </c>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
       <c r="V58" s="15"/>
       <c r="W58" s="17"/>
       <c r="X58" s="15"/>
@@ -19687,7 +19687,7 @@
       <c r="AB58" s="15"/>
       <c r="AC58" s="17"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43947</v>
       </c>
@@ -19727,8 +19727,8 @@
         <f t="shared" si="8"/>
         <v>424</v>
       </c>
-      <c r="T59" s="48"/>
-      <c r="U59" s="48"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
       <c r="V59" s="15"/>
       <c r="W59" s="17"/>
       <c r="X59" s="15"/>
@@ -19738,7 +19738,7 @@
       <c r="AB59" s="15"/>
       <c r="AC59" s="17"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43948</v>
       </c>
@@ -19781,10 +19781,10 @@
         <f t="shared" si="8"/>
         <v>408</v>
       </c>
-      <c r="T60" s="48">
+      <c r="T60" s="23">
         <v>10</v>
       </c>
-      <c r="U60" s="48">
+      <c r="U60" s="23">
         <v>6</v>
       </c>
       <c r="V60" s="15"/>
@@ -19796,7 +19796,7 @@
       <c r="AB60" s="15"/>
       <c r="AC60" s="17"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43949</v>
       </c>
@@ -19839,10 +19839,10 @@
         <f t="shared" si="8"/>
         <v>392</v>
       </c>
-      <c r="T61" s="48">
+      <c r="T61" s="23">
         <v>10</v>
       </c>
-      <c r="U61" s="48">
+      <c r="U61" s="23">
         <v>6</v>
       </c>
       <c r="V61" s="15"/>
@@ -19854,7 +19854,7 @@
       <c r="AB61" s="15"/>
       <c r="AC61" s="17"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43950</v>
       </c>
@@ -19912,8 +19912,8 @@
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="T62" s="48"/>
-      <c r="U62" s="48"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
       <c r="V62" s="15"/>
       <c r="W62" s="17"/>
       <c r="X62" s="15"/>
@@ -19923,7 +19923,7 @@
       <c r="AB62" s="15"/>
       <c r="AC62" s="17"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43951</v>
       </c>
@@ -19981,8 +19981,8 @@
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="T63" s="48"/>
-      <c r="U63" s="48"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
       <c r="V63" s="15"/>
       <c r="W63" s="17"/>
       <c r="X63" s="15"/>
@@ -19992,7 +19992,7 @@
       <c r="AB63" s="15"/>
       <c r="AC63" s="17"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43952</v>
       </c>
@@ -20050,8 +20050,8 @@
         <f t="shared" si="8"/>
         <v>344</v>
       </c>
-      <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
       <c r="V64" s="15"/>
       <c r="W64" s="17"/>
       <c r="X64" s="15"/>
@@ -20061,7 +20061,7 @@
       <c r="AB64" s="15"/>
       <c r="AC64" s="17"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43953</v>
       </c>
@@ -20122,8 +20122,8 @@
         <f t="shared" si="8"/>
         <v>304</v>
       </c>
-      <c r="T65" s="48"/>
-      <c r="U65" s="48"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
       <c r="V65" s="15"/>
       <c r="W65" s="17"/>
       <c r="X65" s="15"/>
@@ -20133,7 +20133,7 @@
       <c r="AB65" s="15"/>
       <c r="AC65" s="17"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43954</v>
       </c>
@@ -20173,8 +20173,8 @@
         <f t="shared" si="8"/>
         <v>304</v>
       </c>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
       <c r="V66" s="15"/>
       <c r="W66" s="17"/>
       <c r="X66" s="15"/>
@@ -20184,7 +20184,7 @@
       <c r="AB66" s="15"/>
       <c r="AC66" s="17"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43955</v>
       </c>
@@ -20227,10 +20227,10 @@
         <f t="shared" si="8"/>
         <v>288</v>
       </c>
-      <c r="T67" s="48">
+      <c r="T67" s="23">
         <v>10</v>
       </c>
-      <c r="U67" s="48">
+      <c r="U67" s="23">
         <v>6</v>
       </c>
       <c r="V67" s="15"/>
@@ -20242,7 +20242,7 @@
       <c r="AB67" s="15"/>
       <c r="AC67" s="17"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43956</v>
       </c>
@@ -20285,10 +20285,10 @@
         <f t="shared" si="8"/>
         <v>272</v>
       </c>
-      <c r="T68" s="48">
+      <c r="T68" s="23">
         <v>10</v>
       </c>
-      <c r="U68" s="48">
+      <c r="U68" s="23">
         <v>6</v>
       </c>
       <c r="V68" s="15"/>
@@ -20300,7 +20300,7 @@
       <c r="AB68" s="15"/>
       <c r="AC68" s="17"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43957</v>
       </c>
@@ -20358,8 +20358,8 @@
         <f t="shared" ref="R69:R85" si="17">$O$85-O69</f>
         <v>256</v>
       </c>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
       <c r="V69" s="15"/>
       <c r="W69" s="17"/>
       <c r="X69" s="15"/>
@@ -20369,7 +20369,7 @@
       <c r="AB69" s="15"/>
       <c r="AC69" s="17"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43958</v>
       </c>
@@ -20427,8 +20427,8 @@
         <f t="shared" si="17"/>
         <v>240</v>
       </c>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
       <c r="V70" s="15"/>
       <c r="W70" s="17"/>
       <c r="X70" s="15"/>
@@ -20438,7 +20438,7 @@
       <c r="AB70" s="15"/>
       <c r="AC70" s="17"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43959</v>
       </c>
@@ -20496,8 +20496,8 @@
         <f t="shared" si="17"/>
         <v>224</v>
       </c>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
       <c r="V71" s="15"/>
       <c r="W71" s="17"/>
       <c r="X71" s="15"/>
@@ -20507,7 +20507,7 @@
       <c r="AB71" s="15"/>
       <c r="AC71" s="17"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43960</v>
       </c>
@@ -20568,8 +20568,8 @@
         <f t="shared" si="17"/>
         <v>184</v>
       </c>
-      <c r="T72" s="48"/>
-      <c r="U72" s="48"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
       <c r="V72" s="15"/>
       <c r="W72" s="17"/>
       <c r="X72" s="15"/>
@@ -20579,7 +20579,7 @@
       <c r="AB72" s="15"/>
       <c r="AC72" s="17"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43961</v>
       </c>
@@ -20619,8 +20619,8 @@
         <f t="shared" si="17"/>
         <v>184</v>
       </c>
-      <c r="T73" s="48"/>
-      <c r="U73" s="48"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
       <c r="V73" s="15"/>
       <c r="W73" s="17"/>
       <c r="X73" s="15"/>
@@ -20630,7 +20630,7 @@
       <c r="AB73" s="15"/>
       <c r="AC73" s="17"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A74" s="19">
         <v>43962</v>
       </c>
@@ -20676,8 +20676,8 @@
         <f t="shared" si="17"/>
         <v>168</v>
       </c>
-      <c r="T74" s="48"/>
-      <c r="U74" s="48"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
       <c r="V74" s="15"/>
       <c r="W74" s="17"/>
       <c r="X74" s="15"/>
@@ -20687,7 +20687,7 @@
       <c r="AB74" s="15"/>
       <c r="AC74" s="17"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A75" s="19">
         <v>43963</v>
       </c>
@@ -20733,8 +20733,8 @@
         <f t="shared" si="17"/>
         <v>152</v>
       </c>
-      <c r="T75" s="48"/>
-      <c r="U75" s="48"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
       <c r="V75" s="15"/>
       <c r="W75" s="17"/>
       <c r="X75" s="15"/>
@@ -20744,7 +20744,7 @@
       <c r="AB75" s="15"/>
       <c r="AC75" s="17"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>43964</v>
       </c>
@@ -20802,8 +20802,8 @@
         <f t="shared" si="17"/>
         <v>136</v>
       </c>
-      <c r="T76" s="48"/>
-      <c r="U76" s="48"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="23"/>
       <c r="V76" s="15"/>
       <c r="W76" s="17"/>
       <c r="X76" s="15"/>
@@ -20813,7 +20813,7 @@
       <c r="AB76" s="15"/>
       <c r="AC76" s="17"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>43965</v>
       </c>
@@ -20856,10 +20856,10 @@
         <f t="shared" si="17"/>
         <v>120</v>
       </c>
-      <c r="T77" s="48">
+      <c r="T77" s="23">
         <v>10</v>
       </c>
-      <c r="U77" s="48">
+      <c r="U77" s="23">
         <v>6</v>
       </c>
       <c r="V77" s="15"/>
@@ -20871,7 +20871,7 @@
       <c r="AB77" s="15"/>
       <c r="AC77" s="17"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>43966</v>
       </c>
@@ -20914,10 +20914,10 @@
         <f t="shared" si="17"/>
         <v>104</v>
       </c>
-      <c r="T78" s="48">
+      <c r="T78" s="23">
         <v>10</v>
       </c>
-      <c r="U78" s="48">
+      <c r="U78" s="23">
         <v>6</v>
       </c>
       <c r="V78" s="15"/>
@@ -20929,7 +20929,7 @@
       <c r="AB78" s="15"/>
       <c r="AC78" s="17"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>43967</v>
       </c>
@@ -20990,8 +20990,8 @@
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="T79" s="48"/>
-      <c r="U79" s="48"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="23"/>
       <c r="V79" s="15"/>
       <c r="W79" s="17"/>
       <c r="X79" s="15"/>
@@ -21001,7 +21001,7 @@
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>43968</v>
       </c>
@@ -21041,8 +21041,8 @@
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="T80" s="48"/>
-      <c r="U80" s="48"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
       <c r="V80" s="15"/>
       <c r="W80" s="17"/>
       <c r="X80" s="15"/>
@@ -21052,7 +21052,7 @@
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>43969</v>
       </c>
@@ -21095,8 +21095,8 @@
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="T81" s="48"/>
-      <c r="U81" s="48"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
       <c r="V81" s="15"/>
       <c r="W81" s="17"/>
       <c r="X81" s="15"/>
@@ -21106,7 +21106,7 @@
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>43970</v>
       </c>
@@ -21149,8 +21149,8 @@
         <f t="shared" si="17"/>
         <v>32</v>
       </c>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
       <c r="V82" s="15"/>
       <c r="W82" s="17"/>
       <c r="X82" s="15"/>
@@ -21160,7 +21160,7 @@
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>43971</v>
       </c>
@@ -21203,8 +21203,8 @@
         <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="T83" s="48"/>
-      <c r="U83" s="48"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="23"/>
       <c r="V83" s="15"/>
       <c r="W83" s="17"/>
       <c r="X83" s="15"/>
@@ -21214,7 +21214,7 @@
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>43972</v>
       </c>
@@ -21257,8 +21257,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T84" s="48"/>
-      <c r="U84" s="48"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
       <c r="V84" s="15"/>
       <c r="W84" s="17"/>
       <c r="X84" s="15"/>
@@ -21268,7 +21268,7 @@
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.45">
       <c r="K85">
         <f t="shared" si="13"/>
         <v>728</v>
@@ -21297,8 +21297,8 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T85" s="48"/>
-      <c r="U85" s="48"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
       <c r="V85" s="15"/>
       <c r="W85" s="17"/>
       <c r="X85" s="15"/>
@@ -21308,7 +21308,7 @@
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -21354,11 +21354,11 @@
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
-      <c r="T86" s="48">
+      <c r="T86" s="23">
         <f>SUM(T2:T85)</f>
         <v>170</v>
       </c>
-      <c r="U86" s="48">
+      <c r="U86" s="23">
         <f>SUM(U2:U85)</f>
         <v>102</v>
       </c>
@@ -21371,7 +21371,7 @@
       <c r="AB86" s="15"/>
       <c r="AC86" s="15"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D87">
         <v>88</v>
       </c>
@@ -21400,7 +21400,7 @@
       <c r="AB87" s="15"/>
       <c r="AC87" s="15"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D88" s="12">
         <f>D87-D86</f>
         <v>0</v>
@@ -21434,7 +21434,7 @@
       <c r="AB88" s="15"/>
       <c r="AC88" s="15"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
         <v>34</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
         <v>1</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
         <v>31</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
         <v>32</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
         <v>16</v>
       </c>
@@ -21531,16 +21531,16 @@
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="53" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.375</v>
       </c>
@@ -21701,60 +21701,60 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="39" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="39" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -21764,60 +21764,60 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="28"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -21827,61 +21827,61 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="5"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="32" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="32" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="32" t="s">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="32" t="s">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="5"/>
@@ -21893,62 +21893,62 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="35" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="31"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="44"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="6"/>
@@ -21958,60 +21958,60 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="5"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="32" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="32" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="32" t="s">
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="34"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="41"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="5"/>
@@ -22020,55 +22020,55 @@
       <c r="AS6" s="7"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="23" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="23" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="23" t="s">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="23" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="25"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="38"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -22081,54 +22081,54 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="5"/>
     </row>
-    <row r="8" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="23" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="26" t="s">
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="28"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="35"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="7"/>
@@ -22136,59 +22136,59 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="23" t="s">
+      <c r="B9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26" t="s">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="26" t="s">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="28"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -22217,110 +22217,110 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-    </row>
-    <row r="12" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+    </row>
+    <row r="12" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="T4:Z4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="AG6:AM6"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AH5:AM5"/>
-    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:AA8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
     <mergeCell ref="AH11:AO11"/>
     <mergeCell ref="U9:AB9"/>
     <mergeCell ref="AC9:AJ9"/>
@@ -22337,24 +22337,24 @@
     <mergeCell ref="AH3:AO3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:AA8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="AG6:AM6"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AH5:AM5"/>
+    <mergeCell ref="Z6:AF6"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22368,16 +22368,16 @@
       <selection activeCell="J9" sqref="J9:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="53" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.375</v>
       </c>
@@ -22538,60 +22538,60 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="39" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="39" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -22601,60 +22601,60 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="28"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -22664,61 +22664,61 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="5"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="32" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="32" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="32" t="s">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="32" t="s">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="34"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="5"/>
@@ -22730,58 +22730,58 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
+      <c r="B5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="44"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -22793,54 +22793,54 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="5"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="32" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="32" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="32" t="s">
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="34"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -22853,52 +22853,52 @@
       <c r="AS6" s="7"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="23" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="23" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="23" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="23" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="25"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="38"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="9"/>
@@ -22914,119 +22914,119 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="5"/>
     </row>
-    <row r="8" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="23" t="s">
+      <c r="B8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="26" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="26" t="s">
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="28"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="35"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
       <c r="AO8" s="5"/>
     </row>
-    <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="32" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="23" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="23" t="s">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="26" t="s">
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="28"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="35"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="5"/>
     </row>
-    <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -23055,92 +23055,127 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-    </row>
-    <row r="12" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+    </row>
+    <row r="12" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AC6:AI6"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="AE9:AL9"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:Z7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="AH4:AN4"/>
     <mergeCell ref="T4:Z4"/>
     <mergeCell ref="AH11:AO11"/>
@@ -23157,41 +23192,6 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="O6:U6"/>
     <mergeCell ref="V6:AB6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AL9"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:Z7"/>
-    <mergeCell ref="AA7:AG7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23201,20 +23201,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1BB46C-696F-4C22-875C-78946866B19E}">
   <dimension ref="A1:BB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="53" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.375</v>
       </c>
@@ -23375,60 +23375,60 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="39" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="39" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -23438,60 +23438,60 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="28"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -23501,55 +23501,55 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="5"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="32" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="32" t="s">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="32" t="s">
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="34"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="41"/>
       <c r="AK4" s="6"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
@@ -23565,56 +23565,56 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
@@ -23628,55 +23628,55 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="5"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="32" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="32" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="32" t="s">
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="32" t="s">
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="34"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="41"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="5"/>
@@ -23688,54 +23688,54 @@
       <c r="AS6" s="7"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="23" t="s">
+      <c r="B7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="23" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="23" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="23" t="s">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="25"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="38"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="7"/>
@@ -23749,113 +23749,113 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="5"/>
     </row>
-    <row r="8" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32" t="s">
+      <c r="B8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="23" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26" t="s">
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="26" t="s">
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="47"/>
-    </row>
-    <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="48"/>
+    </row>
+    <row r="9" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="23" t="s">
+      <c r="B9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="23" t="s">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26" t="s">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="26" t="s">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="28"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="35"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23888,30 +23888,30 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-    </row>
-    <row r="12" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+    </row>
+    <row r="12" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -23919,92 +23919,78 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD9:AK9"/>
-    <mergeCell ref="AD6:AJ6"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="AH11:AO11"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="AD8:AK8"/>
-    <mergeCell ref="AD5:AI5"/>
-    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Q5"/>
@@ -24021,16 +24007,30 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H8:N8"/>
     <mergeCell ref="O8:U8"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="AD9:AK9"/>
+    <mergeCell ref="AD6:AJ6"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="AH11:AO11"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="AD8:AK8"/>
+    <mergeCell ref="AD5:AI5"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24044,16 +24044,16 @@
       <selection activeCell="W9" sqref="W9:AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="53" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.375</v>
       </c>
@@ -24214,60 +24214,60 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="39" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="39" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="41"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
@@ -24277,60 +24277,60 @@
       <c r="AV2" s="7"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="26" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="28"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="35"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
@@ -24340,55 +24340,55 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="5"/>
     </row>
-    <row r="4" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="32" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="32" t="s">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="32" t="s">
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="34"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="41"/>
       <c r="AK4" s="6"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
@@ -24404,58 +24404,58 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
+      <c r="B5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="44"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -24467,54 +24467,54 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="5"/>
     </row>
-    <row r="6" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="32" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="32" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="32" t="s">
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="34"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -24527,54 +24527,54 @@
       <c r="AS6" s="7"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="23" t="s">
+      <c r="B7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="23" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="23" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="23" t="s">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="25"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="38"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="7"/>
@@ -24588,112 +24588,112 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="5"/>
     </row>
-    <row r="8" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="26" t="s">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="35"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="5"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="47"/>
-    </row>
-    <row r="9" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="48"/>
+    </row>
+    <row r="9" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="23" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26" t="s">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="26" t="s">
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="28"/>
-    </row>
-    <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="35"/>
+    </row>
+    <row r="11" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -24722,118 +24722,101 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-    </row>
-    <row r="12" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+    </row>
+    <row r="12" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:54" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="V6:AB6"/>
-    <mergeCell ref="AC6:AI6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AH11:AO11"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="X8:AE8"/>
+    <mergeCell ref="AE9:AL9"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B12:I12"/>
@@ -24848,15 +24831,32 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="AH11:AO11"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="X8:AE8"/>
-    <mergeCell ref="AE9:AL9"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="V6:AB6"/>
+    <mergeCell ref="AC6:AI6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24870,14 +24870,14 @@
       <selection sqref="A1:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.75</v>
       </c>
@@ -24930,169 +24930,169 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:M5"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25106,12 +25106,12 @@
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="3">
         <v>0.75</v>
       </c>
@@ -25161,191 +25161,197 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="23" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32" t="s">
+      <c r="B8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
+      <c r="B9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:O4"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H8:N8"/>
     <mergeCell ref="B9:G9"/>
@@ -25356,12 +25362,6 @@
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="I7:O7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
